--- a/address.xlsx
+++ b/address.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="账号" sheetId="1" r:id="rId1"/>
+    <sheet name="地址" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>github</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +34,14 @@
   </si>
   <si>
     <t>ID :245 610 206  pwd: 8774</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.liaoxuefeng.com/wiki/0013739516305929606dd18361248578c67b8067c8c017b000/001375233990231ac8cf32ef1b24887a5209f83e01cb94b000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git :</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,10 +94,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -396,13 +411,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="63.125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
@@ -435,4 +450,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="23.25" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:L4"/>
+    <mergeCell ref="A1:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>